--- a/biology/Zoologie/Acanthopholis/Acanthopholis.xlsx
+++ b/biology/Zoologie/Acanthopholis/Acanthopholis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthopholis (« écailles épineuses ») est un genre éteint de dinosaures ornithischiens ankylosauriens, attribué historiquement à la famille des nodosauridés, et aujourd'hui considéré comme un nomen dubium[2]. Ses restes ont été découverts dans le Crétacé inférieur d'Angleterre. Il mesurait entre 3 et 5,5 mètres de long[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthopholis (« écailles épineuses ») est un genre éteint de dinosaures ornithischiens ankylosauriens, attribué historiquement à la famille des nodosauridés, et aujourd'hui considéré comme un nomen dubium. Ses restes ont été découverts dans le Crétacé inférieur d'Angleterre. Il mesurait entre 3 et 5,5 mètres de long.
 Il a été nommé par Thomas Henry Huxley à la suite de la découverte d'ossements en 1867. Ce dinosaure vivait à côté des rivières et des forêts. Il possédait des épines sur le dos qui lui permettaient de se protéger des prédateurs, entre autres du genre Acrocanthosaurus.
-Cependant, une revue de tous les restes fossiles d'Acanthopholis connus, réalisée par X. Pereda-Suberbiola et P. M. Barrett en 1999[2], concluent que tous les spécimens examinés sont à la fois un mélange d'os de dinosaures, dont certains appartiennent à des sauropodes et que les autres sont bien des restes d'ankylosauriens mais non diagnostiqués. Tous doivent donc être considérés comme des nomina dubia.
+Cependant, une revue de tous les restes fossiles d'Acanthopholis connus, réalisée par X. Pereda-Suberbiola et P. M. Barrett en 1999, concluent que tous les spécimens examinés sont à la fois un mélange d'os de dinosaures, dont certains appartiennent à des sauropodes et que les autres sont bien des restes d'ankylosauriens mais non diagnostiqués. Tous doivent donc être considérés comme des nomina dubia.
 Son nom signifie écailles épineuses
 Époque : Crétacé inférieur Aptien et Albien et supérieur Cénomanien (≃ -120 à -95 Ma)
 Taille : 5,5 m de long, 1,8 m de haut, 400 à 700 kg
